--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N2">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q2">
-        <v>3.964467343731555</v>
+        <v>8.236698614752445</v>
       </c>
       <c r="R2">
-        <v>35.680206093584</v>
+        <v>74.130287532772</v>
       </c>
       <c r="S2">
-        <v>0.09674641513816989</v>
+        <v>0.1434056103936691</v>
       </c>
       <c r="T2">
-        <v>0.09674641513816991</v>
+        <v>0.143405610393669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H3">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I3">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J3">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q3">
-        <v>3.938695908738</v>
+        <v>8.396204335475998</v>
       </c>
       <c r="R3">
-        <v>35.448263178642</v>
+        <v>75.565839019284</v>
       </c>
       <c r="S3">
-        <v>0.09611750493853481</v>
+        <v>0.1461826957662812</v>
       </c>
       <c r="T3">
-        <v>0.09611750493853484</v>
+        <v>0.1461826957662812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H4">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I4">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J4">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N4">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q4">
-        <v>4.135450898508445</v>
+        <v>9.700156284210667</v>
       </c>
       <c r="R4">
-        <v>37.21905808657601</v>
+        <v>87.301406557896</v>
       </c>
       <c r="S4">
-        <v>0.1009189923189103</v>
+        <v>0.1688852412736998</v>
       </c>
       <c r="T4">
-        <v>0.1009189923189103</v>
+        <v>0.1688852412736997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H5">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I5">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J5">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N5">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q5">
-        <v>1.372910894997111</v>
+        <v>2.447211483571111</v>
       </c>
       <c r="R5">
-        <v>12.356198054974</v>
+        <v>22.02490335214</v>
       </c>
       <c r="S5">
-        <v>0.0335036704502366</v>
+        <v>0.04260734463870623</v>
       </c>
       <c r="T5">
-        <v>0.0335036704502366</v>
+        <v>0.04260734463870622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
         <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J6">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N6">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q6">
-        <v>5.868601594347555</v>
+        <v>5.719688934137445</v>
       </c>
       <c r="R6">
-        <v>52.81741434912799</v>
+        <v>51.47720040723701</v>
       </c>
       <c r="S6">
-        <v>0.1432137326153037</v>
+        <v>0.09958303942222696</v>
       </c>
       <c r="T6">
-        <v>0.1432137326153037</v>
+        <v>0.0995830394222269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
         <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J7">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.553807</v>
       </c>
       <c r="O7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q7">
-        <v>5.830452135320999</v>
+        <v>5.830452135321</v>
       </c>
       <c r="R7">
         <v>52.474069217889</v>
       </c>
       <c r="S7">
-        <v>0.1422827567539145</v>
+        <v>0.1015114897902464</v>
       </c>
       <c r="T7">
-        <v>0.1422827567539145</v>
+        <v>0.1015114897902463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
         <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J8">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N8">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q8">
-        <v>6.121708575732445</v>
+        <v>6.735936223140667</v>
       </c>
       <c r="R8">
-        <v>55.095377181592</v>
+        <v>60.62342600826601</v>
       </c>
       <c r="S8">
-        <v>0.1493903992321065</v>
+        <v>0.117276483070802</v>
       </c>
       <c r="T8">
-        <v>0.1493903992321065</v>
+        <v>0.1172764830708019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H9">
         <v>2.989327</v>
       </c>
       <c r="I9">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J9">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N9">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q9">
-        <v>2.032320200598111</v>
+        <v>1.699380916646111</v>
       </c>
       <c r="R9">
-        <v>18.290881805383</v>
+        <v>15.294428249815</v>
       </c>
       <c r="S9">
-        <v>0.04959548831487794</v>
+        <v>0.02958718887765361</v>
       </c>
       <c r="T9">
-        <v>0.04959548831487795</v>
+        <v>0.0295871888776536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H10">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I10">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J10">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N10">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q10">
-        <v>2.280068451359111</v>
+        <v>2.481474570911445</v>
       </c>
       <c r="R10">
-        <v>20.520616062232</v>
+        <v>22.333271138203</v>
       </c>
       <c r="S10">
-        <v>0.05564138377565844</v>
+        <v>0.04320388448844794</v>
       </c>
       <c r="T10">
-        <v>0.05564138377565846</v>
+        <v>0.04320388448844792</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H11">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I11">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J11">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.553807</v>
       </c>
       <c r="O11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q11">
-        <v>2.265246627699</v>
+        <v>2.529528944199</v>
       </c>
       <c r="R11">
-        <v>20.387219649291</v>
+        <v>22.765760497791</v>
       </c>
       <c r="S11">
-        <v>0.05527968113553121</v>
+        <v>0.04404053847516105</v>
       </c>
       <c r="T11">
-        <v>0.05527968113553122</v>
+        <v>0.04404053847516104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H12">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I12">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J12">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N12">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q12">
-        <v>2.378405548160889</v>
+        <v>2.922371241072667</v>
       </c>
       <c r="R12">
-        <v>21.405649933448</v>
+        <v>26.301341169654</v>
       </c>
       <c r="S12">
-        <v>0.05804114161594182</v>
+        <v>0.0508801464305521</v>
       </c>
       <c r="T12">
-        <v>0.05804114161594183</v>
+        <v>0.05088014643055208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H13">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I13">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J13">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N13">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q13">
-        <v>0.7895968226752221</v>
+        <v>0.7372727047761111</v>
       </c>
       <c r="R13">
-        <v>7.106371404077001</v>
+        <v>6.635454342985</v>
       </c>
       <c r="S13">
-        <v>0.01926883371081429</v>
+        <v>0.01283633737255388</v>
       </c>
       <c r="T13">
-        <v>0.01926883371081429</v>
+        <v>0.01283633737255387</v>
       </c>
     </row>
   </sheetData>
